--- a/Output.xlsx
+++ b/Output.xlsx
@@ -137,177 +137,715 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PPDKN540</t>
+          <t>CHDKN030</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>142.27445652173913</v>
+        <v>144.028</v>
       </c>
       <c r="D2" t="n">
-        <v>130.4312396</v>
+        <v>107.64497249999397</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5013699999999786</v>
+        <v>0.5013700000080616</v>
       </c>
       <c r="F2" t="n">
-        <v>11.341846921739128</v>
+        <v>35.88165749999797</v>
       </c>
       <c r="G2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H2" s="7" t="n">
-        <v>43401.04236111111</v>
+        <v>43405.51458333333</v>
       </c>
       <c r="I2" s="7" t="n">
-        <v>43401.65347221065</v>
+        <v>43406.13263888889</v>
       </c>
       <c r="J2" t="n">
-        <v>14.666666388888888</v>
+        <v>14.833333333333334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PSDKN040</t>
+          <t>CHDKN070</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
       </c>
       <c r="C3" t="n">
-        <v>107.73999999999998</v>
+        <v>147.652</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0</v>
+        <v>110.36297249999399</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0</v>
+        <v>0.5013700000080616</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0</v>
+        <v>36.78765749999799</v>
       </c>
       <c r="G3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H3" s="7" t="n">
-        <v>43401.75069443287</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>43404.44513888889</v>
+      </c>
+      <c r="I3" s="7" t="n">
+        <v>43405.07708333333</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0</v>
+        <v>15.166666666666666</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PSDKN050</t>
+          <t>PPDKN350</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1.0</v>
       </c>
       <c r="C4" t="n">
-        <v>154.67999999999998</v>
+        <v>43.97826086956522</v>
       </c>
       <c r="D4" t="n">
-        <v>115.63397250000001</v>
+        <v>39.99873959999252</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5013699999999786</v>
+        <v>0.5013700000082228</v>
       </c>
       <c r="F4" t="n">
-        <v>38.54465750000001</v>
+        <v>3.478151269564563</v>
       </c>
       <c r="G4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H4" s="7" t="n">
-        <v>43401.04236111111</v>
+        <v>43405.11875</v>
       </c>
       <c r="I4" s="7" t="n">
-        <v>43401.70902776621</v>
+        <v>43405.32013888889</v>
       </c>
       <c r="J4" t="n">
-        <v>15.999999722222222</v>
+        <v>4.833333333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WLDKN170</t>
+          <t>PPDKN370</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
       </c>
       <c r="C5" t="n">
-        <v>567.7608695652174</v>
+        <v>160.46533333333332</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0</v>
+        <v>119.5969450000022</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0</v>
+        <v>1.0027399999969364</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0</v>
+        <v>39.86564833333411</v>
       </c>
       <c r="G5" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H5" s="7" t="n">
-        <v>43401.04236111111</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>43402.43819443287</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <v>43403.30625</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0</v>
+        <v>20.83333361111111</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WLDKN290</t>
+          <t>PPDKN390</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1.0</v>
       </c>
       <c r="C6" t="n">
-        <v>112.5</v>
+        <v>154.99599999999998</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0</v>
+        <v>115.87097249999385</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0</v>
+        <v>0.5013700000080619</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0</v>
+        <v>38.62365749999796</v>
       </c>
       <c r="G6" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H6" s="7" t="n">
-        <v>43401.695138877316</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>43404.44513888889</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <v>43405.111805555556</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PPDKN400</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>422.5813333333333</v>
+      </c>
+      <c r="D7" t="n">
+        <v>316.5599725</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5013699999999786</v>
+      </c>
+      <c r="F7" t="n">
+        <v>105.51999083333335</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <v>43401.04236111111</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <v>43402.82708332176</v>
+      </c>
+      <c r="J7" t="n">
+        <v>42.833333055555556</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PPDKN410</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>128.31333333333333</v>
+      </c>
+      <c r="D8" t="n">
+        <v>95.85897249999402</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5013700000080625</v>
+      </c>
+      <c r="F8" t="n">
+        <v>31.952990833331327</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <v>43405.51458333333</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <v>43406.07013888889</v>
+      </c>
+      <c r="J8" t="n">
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PPDKN430</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>174.7773333333333</v>
+      </c>
+      <c r="D9" t="n">
+        <v>129.57888999999722</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.005480000003466</v>
+      </c>
+      <c r="F9" t="n">
+        <v>43.19296333333243</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <v>43402.43819443287</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <v>43403.32013888889</v>
+      </c>
+      <c r="J9" t="n">
+        <v>21.166666944444444</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PPDKN46B</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>28.07401902173913</v>
+      </c>
+      <c r="D10" t="n">
+        <v>25.36683710000142</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5013699999984684</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.205811921739251</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H10" s="7" t="n">
+        <v>43402.26458332176</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <v>43402.39652776621</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.1666666666666665</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PPDKN46N</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>55.47887228260869</v>
+      </c>
+      <c r="D11" t="n">
+        <v>50.5793021000014</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5013699999984682</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4.398200182608811</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H11" s="7" t="n">
+        <v>43401.882638877316</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <v>43402.132638877316</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PPDKN46O</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>28.07401902173913</v>
+      </c>
+      <c r="D12" t="n">
+        <v>25.36683710000139</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5013699999985086</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.2058119217392544</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H12" s="7" t="n">
+        <v>43402.17430554398</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <v>43402.306249988425</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.1666666666666665</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PPDKN470</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>53.83333333333333</v>
+      </c>
+      <c r="D13" t="n">
+        <v>39.62294499998785</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.0027400000162043</v>
+      </c>
+      <c r="F13" t="n">
+        <v>13.207648333329274</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H13" s="7" t="n">
+        <v>43403.361805555556</v>
+      </c>
+      <c r="I13" s="7" t="n">
+        <v>43403.82013888889</v>
+      </c>
+      <c r="J13" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PPDSN46G</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>32.54198529411765</v>
+      </c>
+      <c r="D14" t="n">
+        <v>27.234523000001303</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5013699999984684</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4.8060922941178745</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H14" s="7" t="n">
+        <v>43402.070138877316</v>
+      </c>
+      <c r="I14" s="7" t="n">
+        <v>43402.22291665509</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PPDSN46R</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>32.54198529411765</v>
+      </c>
+      <c r="D15" t="n">
+        <v>27.234523000001275</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5013699999984682</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4.806092294117871</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H15" s="7" t="n">
+        <v>43401.87569443287</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <v>43402.02847221065</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PSDKN060</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>220.7</v>
+      </c>
+      <c r="D16" t="n">
+        <v>164.772944999988</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.0027400000162043</v>
+      </c>
+      <c r="F16" t="n">
+        <v>54.924314999995964</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H16" s="7" t="n">
+        <v>43403.347916666666</v>
+      </c>
+      <c r="I16" s="7" t="n">
+        <v>43404.57013888889</v>
+      </c>
+      <c r="J16" t="n">
+        <v>29.333333333333332</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PSDKN100</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>27.636</v>
+      </c>
+      <c r="D17" t="n">
+        <v>20.350972499993873</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5013700000080616</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6.783657499997986</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H17" s="7" t="n">
+        <v>43407.285416666666</v>
+      </c>
+      <c r="I17" s="7" t="n">
+        <v>43407.41736111111</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.1666666666666665</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>WLCKN010</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>47.21333333333334</v>
+      </c>
+      <c r="D18" t="n">
+        <v>35.033972499993865</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.5013700000080616</v>
+      </c>
+      <c r="F18" t="n">
+        <v>11.677990833331307</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H18" s="7" t="n">
+        <v>43407.285416666666</v>
+      </c>
+      <c r="I18" s="7" t="n">
+        <v>43407.50069444445</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5.166666666666667</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>WLDKN170</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>381.125</v>
+      </c>
+      <c r="D19" t="n">
+        <v>350.1737395999928</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.5013700000080619</v>
+      </c>
+      <c r="F19" t="n">
+        <v>30.44989039999936</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H19" s="7" t="n">
+        <v>43405.51458333333</v>
+      </c>
+      <c r="I19" s="7" t="n">
+        <v>43407.12569444445</v>
+      </c>
+      <c r="J19" t="n">
+        <v>38.666666666666664</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>WLDKN180</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>136.8858695652174</v>
+      </c>
+      <c r="D20" t="n">
+        <v>125.0124791999852</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.0027400000161237</v>
+      </c>
+      <c r="F20" t="n">
+        <v>10.870650365216093</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H20" s="7" t="n">
+        <v>43403.35486111111</v>
+      </c>
+      <c r="I20" s="7" t="n">
+        <v>43404.40347222222</v>
+      </c>
+      <c r="J20" t="n">
+        <v>25.166666666666668</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>WLDKN30B</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>185.52717391304347</v>
+      </c>
+      <c r="D21" t="n">
+        <v>170.22373960000002</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5013699999999786</v>
+      </c>
+      <c r="F21" t="n">
+        <v>14.802064313043477</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H21" s="7" t="n">
+        <v>43401.04236111111</v>
+      </c>
+      <c r="I21" s="7" t="n">
+        <v>43401.83402776621</v>
+      </c>
+      <c r="J21" t="n">
+        <v>18.99999972222222</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>WLDKN30R</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>185.52717391304347</v>
+      </c>
+      <c r="D22" t="n">
+        <v>170.22373960000002</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5013699999999786</v>
+      </c>
+      <c r="F22" t="n">
+        <v>14.802064313043477</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H22" s="7" t="n">
+        <v>43401.04236111111</v>
+      </c>
+      <c r="I22" s="7" t="n">
+        <v>43401.83402776621</v>
+      </c>
+      <c r="J22" t="n">
+        <v>18.99999972222222</v>
       </c>
     </row>
   </sheetData>
@@ -375,7 +913,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13.94</v>
+        <v>0.0</v>
       </c>
       <c r="D3" t="n">
         <v>1.0</v>
@@ -411,7 +949,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16.85500543478261</v>
+        <v>0.0</v>
       </c>
       <c r="D5" t="n">
         <v>1.0</v>
@@ -429,7 +967,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33.259125</v>
+        <v>0.0</v>
       </c>
       <c r="D6" t="n">
         <v>1.0</v>
@@ -609,7 +1147,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0</v>
+        <v>160.46533333333332</v>
       </c>
       <c r="D16" t="n">
         <v>1.0</v>
@@ -627,7 +1165,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>68.148</v>
+        <v>154.99599999999998</v>
       </c>
       <c r="D17" t="n">
         <v>1.0</v>
@@ -645,7 +1183,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>62.995999999999995</v>
+        <v>422.5813333333333</v>
       </c>
       <c r="D18" t="n">
         <v>1.0</v>
@@ -663,7 +1201,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0</v>
+        <v>128.31333333333333</v>
       </c>
       <c r="D19" t="n">
         <v>1.0</v>
@@ -681,7 +1219,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0</v>
+        <v>174.7773333333333</v>
       </c>
       <c r="D20" t="n">
         <v>1.0</v>
@@ -699,7 +1237,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0</v>
+        <v>28.07401902173913</v>
       </c>
       <c r="D21" t="n">
         <v>1.0</v>
@@ -717,7 +1255,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0</v>
+        <v>55.47887228260869</v>
       </c>
       <c r="D22" t="n">
         <v>1.0</v>
@@ -735,7 +1273,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.0</v>
+        <v>28.07401902173913</v>
       </c>
       <c r="D23" t="n">
         <v>1.0</v>
@@ -753,7 +1291,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.0</v>
+        <v>32.54198529411765</v>
       </c>
       <c r="D24" t="n">
         <v>1.0</v>
@@ -771,7 +1309,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.0</v>
+        <v>32.54198529411765</v>
       </c>
       <c r="D25" t="n">
         <v>1.0</v>
@@ -843,7 +1381,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>11.935869565217391</v>
+        <v>0.0</v>
       </c>
       <c r="D29" t="n">
         <v>1.0</v>
@@ -861,7 +1399,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>11.901630434782607</v>
+        <v>0.0</v>
       </c>
       <c r="D30" t="n">
         <v>1.0</v>
@@ -879,7 +1417,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>11.901630434782607</v>
+        <v>0.0</v>
       </c>
       <c r="D31" t="n">
         <v>1.0</v>
@@ -897,7 +1435,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>142.27445652173913</v>
+        <v>0.0</v>
       </c>
       <c r="D32" t="n">
         <v>1.0</v>
@@ -951,7 +1489,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>14.5</v>
+        <v>144.028</v>
       </c>
       <c r="D35" t="n">
         <v>1.0</v>
@@ -1023,7 +1561,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>14.052</v>
+        <v>147.652</v>
       </c>
       <c r="D39" t="n">
         <v>1.0</v>
@@ -1059,7 +1597,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>11.46</v>
+        <v>0.0</v>
       </c>
       <c r="D41" t="n">
         <v>1.0</v>
@@ -1113,7 +1651,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>11.304347826086955</v>
+        <v>0.0</v>
       </c>
       <c r="D44" t="n">
         <v>1.0</v>
@@ -1131,7 +1669,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>11.304347826086955</v>
+        <v>0.0</v>
       </c>
       <c r="D45" t="n">
         <v>1.0</v>
@@ -1149,7 +1687,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>11.304347826086955</v>
+        <v>0.0</v>
       </c>
       <c r="D46" t="n">
         <v>1.0</v>
@@ -1167,7 +1705,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>11.304347826086955</v>
+        <v>0.0</v>
       </c>
       <c r="D47" t="n">
         <v>1.0</v>
@@ -1257,7 +1795,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>94.29999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="D52" t="n">
         <v>1.0</v>
@@ -1365,7 +1903,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>19.654415760869565</v>
+        <v>0.0</v>
       </c>
       <c r="D58" t="n">
         <v>1.0</v>
@@ -1383,7 +1921,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>38.80883152173913</v>
+        <v>0.0</v>
       </c>
       <c r="D59" t="n">
         <v>1.0</v>
@@ -1401,7 +1939,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>19.654415760869565</v>
+        <v>0.0</v>
       </c>
       <c r="D60" t="n">
         <v>1.0</v>
@@ -1419,7 +1957,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>18.270147058823532</v>
+        <v>0.0</v>
       </c>
       <c r="D61" t="n">
         <v>1.0</v>
@@ -1437,7 +1975,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>18.270147058823532</v>
+        <v>0.0</v>
       </c>
       <c r="D62" t="n">
         <v>1.0</v>
@@ -1491,7 +2029,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>42.23866666666666</v>
+        <v>0.0</v>
       </c>
       <c r="D65" t="n">
         <v>1.0</v>
@@ -1545,7 +2083,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>17.22533333333333</v>
+        <v>0.0</v>
       </c>
       <c r="D68" t="n">
         <v>1.0</v>
@@ -1617,7 +2155,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>107.73999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="D72" t="n">
         <v>1.0</v>
@@ -1635,7 +2173,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>154.67999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="D73" t="n">
         <v>1.0</v>
@@ -1653,7 +2191,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.0</v>
+        <v>220.7</v>
       </c>
       <c r="D74" t="n">
         <v>1.0</v>
@@ -1707,7 +2245,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>27.636</v>
+        <v>0.0</v>
       </c>
       <c r="D77" t="n">
         <v>1.0</v>
@@ -1725,7 +2263,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.0</v>
+        <v>27.636</v>
       </c>
       <c r="D78" t="n">
         <v>1.0</v>
@@ -1743,7 +2281,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>80.89999999999999</v>
+        <v>0.0</v>
       </c>
       <c r="D79" t="n">
         <v>1.0</v>
@@ -1815,7 +2353,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.0</v>
+        <v>47.21333333333334</v>
       </c>
       <c r="D83" t="n">
         <v>1.0</v>
@@ -1869,7 +2407,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>567.7608695652174</v>
+        <v>381.125</v>
       </c>
       <c r="D86" t="n">
         <v>1.0</v>
@@ -1887,7 +2425,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.0</v>
+        <v>136.8858695652174</v>
       </c>
       <c r="D87" t="n">
         <v>1.0</v>
@@ -1923,7 +2461,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>22.413043478260867</v>
+        <v>0.0</v>
       </c>
       <c r="D89" t="n">
         <v>1.0</v>
@@ -1995,7 +2533,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>22.26086956521739</v>
+        <v>0.0</v>
       </c>
       <c r="D93" t="n">
         <v>1.0</v>
@@ -2049,7 +2587,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>112.5</v>
+        <v>0.0</v>
       </c>
       <c r="D96" t="n">
         <v>1.0</v>
@@ -2067,7 +2605,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.0</v>
+        <v>185.52717391304347</v>
       </c>
       <c r="D97" t="n">
         <v>1.0</v>
@@ -2085,7 +2623,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.0</v>
+        <v>185.52717391304347</v>
       </c>
       <c r="D98" t="n">
         <v>1.0</v>
@@ -2139,7 +2677,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.0</v>
+        <v>43.97826086956522</v>
       </c>
       <c r="D101" t="n">
         <v>1.0</v>
@@ -2229,7 +2767,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.0</v>
+        <v>53.83333333333333</v>
       </c>
       <c r="D106" t="n">
         <v>1.0</v>
@@ -2251,6 +2789,1914 @@
       </c>
       <c r="D107" t="n">
         <v>1.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>PPCKN130</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>PPCKN140</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>PPCKN150</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>PPCKN16G</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>PPCKN16N</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>PPCKN170</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>PPCKN18G</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>PPCKN18O</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>PPCKN18Y</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>PPCKN19B</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>PPCKN19O</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>PPCKN19R</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>PPCKN19Y</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>PPCKN200</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>PPDKN370</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>PPDKN390</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>PPDKN400</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>PPDKN410</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>PPDKN430</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>PPDKN46B</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>PPDKN46N</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>PPDKN46O</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>PPDSN46G</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>PPDSN46R</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>PPDKN51B</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>PPDKN51O</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>PPDKN51R</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>PPDKN52B</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>PPDKN52O</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>PPDKN52R</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>PPDKN540</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>CHDKN010</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>CHDKN020</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>CHDKN030</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>CHDKN040</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>CHDKN050</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>CHDKN060</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>CHDKN070</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>CHDKN080</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>CHDKN090</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>CHDKN100</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D148" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>CHDKN110</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>PPCKN10N</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D150" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>PPCKN10R</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>PPCKN10Y</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>PPCKN1RR</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D153" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>PPDKN38B</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>PPDKN38R</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>PPDSN38O</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>PPDKN420</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D157" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>PPDKN440</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D158" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>PPDKN45B</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D159" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>PPDKN45N</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D160" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>PPDKN45O</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D161" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>PPDSN45G</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D162" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>PPDSN45R</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D163" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>PPDKN48B</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D164" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>PPDKN48N</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>PPDKN48O</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>PPDSN48G</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>PPDSN48R</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>PPDKN490</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>PPDKN500</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D170" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>PSCKN010</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>PSCKN020</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D172" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>PSCKN030</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>PSCKN040</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>PSDKN010</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>PSDKN020</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>PSDKN030</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>PSDKN040</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D178" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>PSDKN050</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D179" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>PSDKN060</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D180" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>PSDKN070</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D181" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>PSDKN080</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D182" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>PSDKN090</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D183" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>PSDKN100</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D184" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>PSDKN110</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D185" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>PSDKN120</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D186" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>PSDKN130</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D187" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>VDDKN020</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D188" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>WLCKN010</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D189" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>WLCKN020</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D190" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>WLDKN140</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D191" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>WLDKN170</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D192" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>WLDKN180</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>WLDKN190</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>WLDKN220</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>WLDKN230</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>WLDKN240</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>WLDKN250</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>WLDKN260</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D199" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>WLDKN270</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D200" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>WLDKN280</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D201" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>WLDKN290</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D202" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>WLDKN30B</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D203" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>WLDKN30R</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D204" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>WLDKN370</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D205" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>PPCKN060</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D206" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>PPDKN350</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D207" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>PPDKN360</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D208" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>PPDKN050</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D209" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>PPDKN170</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D210" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>PPDKN330</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D211" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>PPDKN470</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D212" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>PPDKN550</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D213" t="n">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
@@ -2321,75 +4767,75 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ALDKN540115</t>
+          <t>ALDKN370124</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>4015.0</v>
+        <v>2520.0</v>
       </c>
       <c r="D2" t="n">
-        <v>4020.0</v>
+        <v>2520.0</v>
       </c>
       <c r="E2" t="n">
-        <v>30.1125</v>
+        <v>30.24</v>
       </c>
       <c r="F2" t="n">
-        <v>30.15</v>
+        <v>30.24</v>
       </c>
       <c r="G2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H2" s="11" t="n">
-        <v>43401.08194443287</v>
+        <v>43403.04303253472</v>
       </c>
       <c r="I2" s="11" t="n">
-        <v>43401.35592142361</v>
+        <v>43403.07843101852</v>
       </c>
       <c r="J2" t="n">
-        <v>6.575447777777778</v>
+        <v>0.8495636111111111</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ALDKN540140</t>
+          <t>ALDKN370404</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
       </c>
       <c r="C3" t="n">
-        <v>4446.0</v>
+        <v>2600.0</v>
       </c>
       <c r="D3" t="n">
-        <v>4450.0</v>
+        <v>2600.0</v>
       </c>
       <c r="E3" t="n">
-        <v>88.92</v>
+        <v>5.2</v>
       </c>
       <c r="F3" t="n">
-        <v>89.0</v>
+        <v>5.2</v>
       </c>
       <c r="G3" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H3" s="11" t="n">
-        <v>43401.750443032404</v>
+        <v>43403.30902777778</v>
       </c>
       <c r="I3" s="11" t="n">
-        <v>43401.815135462966</v>
+        <v>43403.42845074074</v>
       </c>
       <c r="J3" t="n">
-        <v>1.5526183333333334</v>
+        <v>2.8661511111111113</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PSDKN040406</t>
+          <t>ALDKN390406</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2411,291 +4857,1239 @@
         <v>1.0</v>
       </c>
       <c r="H4" s="11" t="n">
-        <v>43401.79097221065</v>
+        <v>43405.2625</v>
       </c>
       <c r="I4" s="11" t="n">
-        <v>43401.91154907407</v>
+        <v>43405.46664320602</v>
       </c>
       <c r="J4" t="n">
-        <v>2.893844722222222</v>
+        <v>4.899436944444444</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PSDKN050115</t>
+          <t>ALDKN400115</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
       </c>
       <c r="C5" t="n">
-        <v>4238.0</v>
+        <v>2730.0</v>
       </c>
       <c r="D5" t="n">
-        <v>4240.0</v>
+        <v>2730.0</v>
       </c>
       <c r="E5" t="n">
-        <v>31.785</v>
+        <v>20.475</v>
       </c>
       <c r="F5" t="n">
-        <v>31.8</v>
+        <v>20.475</v>
       </c>
       <c r="G5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H5" s="11" t="n">
-        <v>43401.08263887731</v>
+        <v>43401.35694443287</v>
       </c>
       <c r="I5" s="11" t="n">
-        <v>43401.499561979166</v>
+        <v>43401.561850150465</v>
       </c>
       <c r="J5" t="n">
-        <v>10.006154444444444</v>
+        <v>4.917737222222223</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PSDKN050406</t>
+          <t>ALDKN400406</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1.0</v>
       </c>
       <c r="C6" t="n">
-        <v>5120.0</v>
+        <v>4800.0</v>
       </c>
       <c r="D6" t="n">
-        <v>5120.0</v>
+        <v>4800.0</v>
       </c>
       <c r="E6" t="n">
-        <v>15.36</v>
+        <v>14.4</v>
       </c>
       <c r="F6" t="n">
-        <v>15.36</v>
+        <v>14.4</v>
       </c>
       <c r="G6" t="n">
         <v>1.0</v>
       </c>
       <c r="H6" s="11" t="n">
-        <v>43401.306249988425</v>
+        <v>43401.551366597225</v>
       </c>
       <c r="I6" s="11" t="n">
-        <v>43401.48998614583</v>
+        <v>43401.592084282405</v>
       </c>
       <c r="J6" t="n">
-        <v>4.409667777777778</v>
+        <v>0.9772244444444445</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WLDKN170150</t>
+          <t>ALDKN410115</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>1.0</v>
       </c>
       <c r="C7" t="n">
-        <v>18816.0</v>
+        <v>1400.0</v>
       </c>
       <c r="D7" t="n">
-        <v>7200.0</v>
+        <v>1400.0</v>
       </c>
       <c r="E7" t="n">
-        <v>470.4</v>
+        <v>10.5</v>
       </c>
       <c r="F7" t="n">
-        <v>180.0</v>
+        <v>10.5</v>
       </c>
       <c r="G7" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="H7" s="11" t="n">
-        <v>43401.26541662037</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>43405.55486111111</v>
+      </c>
+      <c r="I7" s="11" t="n">
+        <v>43405.63525011574</v>
       </c>
       <c r="J7" t="n">
-        <v>17.499089444444444</v>
+        <v>1.9293361111111111</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>WLDKN170404</t>
+          <t>ALDKN410406</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1.0</v>
       </c>
       <c r="C8" t="n">
-        <v>1800.0</v>
+        <v>1610.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1800.0</v>
+        <v>1610.0</v>
       </c>
       <c r="E8" t="n">
-        <v>3.6</v>
+        <v>4.83</v>
       </c>
       <c r="F8" t="n">
-        <v>3.6</v>
+        <v>4.83</v>
       </c>
       <c r="G8" t="n">
         <v>1.0</v>
       </c>
       <c r="H8" s="11" t="n">
-        <v>43401.24474002315</v>
+        <v>43407.34351508102</v>
       </c>
       <c r="I8" s="11" t="n">
-        <v>43401.247955266204</v>
+        <v>43407.416295243056</v>
       </c>
       <c r="J8" t="n">
-        <v>0.07716583333333334</v>
+        <v>1.746723888888889</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>WLDKN290124</t>
+          <t>ALDKN430111</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>1.0</v>
       </c>
       <c r="C9" t="n">
-        <v>2649.0</v>
+        <v>6384.0</v>
       </c>
       <c r="D9" t="n">
-        <v>220.0</v>
+        <v>6390.0</v>
       </c>
       <c r="E9" t="n">
-        <v>31.788</v>
+        <v>35.112</v>
       </c>
       <c r="F9" t="n">
-        <v>2.64</v>
+        <v>35.145</v>
       </c>
       <c r="G9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="H9" s="11" t="n">
-        <v>43401.95902776621</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>43403.08888888889</v>
+      </c>
+      <c r="I9" s="11" t="n">
+        <v>43403.568488564815</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8524219444444444</v>
+        <v>11.510392222222222</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PSDKN050115</t>
+          <t>ALDKN430404</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1.0</v>
       </c>
       <c r="C10" t="n">
-        <v>4238.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D10" t="n">
-        <v>4240.0</v>
+        <v>5000.0</v>
       </c>
       <c r="E10" t="n">
-        <v>31.785</v>
+        <v>10.0</v>
       </c>
       <c r="F10" t="n">
-        <v>31.8</v>
+        <v>10.0</v>
       </c>
       <c r="G10" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H10" s="11" t="n">
-        <v>43401.52083332176</v>
+        <v>43403.44930555556</v>
       </c>
       <c r="I10" s="11" t="n">
-        <v>43401.93775642361</v>
+        <v>43403.67896509259</v>
       </c>
       <c r="J10" t="n">
-        <v>10.006154444444444</v>
+        <v>5.511828888888889</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ALDKN540140</t>
+          <t>ALDKN460116</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1.0</v>
       </c>
       <c r="C11" t="n">
-        <v>490.0</v>
+        <v>1320.0</v>
       </c>
       <c r="D11" t="n">
-        <v>490.0</v>
+        <v>1320.0</v>
       </c>
       <c r="E11" t="n">
-        <v>9.8</v>
+        <v>10.23</v>
       </c>
       <c r="F11" t="n">
-        <v>9.8</v>
+        <v>10.23</v>
       </c>
       <c r="G11" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H11" s="11" t="n">
-        <v>43401.83611109954</v>
+        <v>43402.29375</v>
       </c>
       <c r="I11" s="11" t="n">
-        <v>43401.90288537037</v>
+        <v>43402.32296677084</v>
       </c>
       <c r="J11" t="n">
-        <v>1.6025825</v>
+        <v>0.7012025</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PSDKN050115</t>
+          <t>CHDKN030114</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1.0</v>
       </c>
       <c r="C12" t="n">
-        <v>4894.0</v>
+        <v>1078.0</v>
       </c>
       <c r="D12" t="n">
-        <v>930.0</v>
+        <v>1080.0</v>
       </c>
       <c r="E12" t="n">
-        <v>36.705</v>
+        <v>7.546</v>
       </c>
       <c r="F12" t="n">
-        <v>6.975</v>
+        <v>7.56</v>
       </c>
       <c r="G12" t="n">
         <v>3.0</v>
       </c>
       <c r="H12" s="11" t="n">
-        <v>43401.92430554398</v>
-      </c>
-      <c r="I12" t="inlineStr">
+        <v>43405.55486111111</v>
+      </c>
+      <c r="I12" s="11" t="n">
+        <v>43405.63592231482</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.945468888888889</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CHDKN030128</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7140.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7140.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>99.96</v>
+      </c>
+      <c r="F13" t="n">
+        <v>99.96</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H13" s="11" t="n">
+        <v>43405.65694444445</v>
+      </c>
+      <c r="I13" s="11" t="n">
+        <v>43406.23171354167</v>
+      </c>
+      <c r="J13" t="n">
+        <v>13.794458333333333</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CHDKN070112</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1694.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1700.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10.164</v>
+      </c>
+      <c r="F14" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H14" s="11" t="n">
+        <v>43404.475</v>
+      </c>
+      <c r="I14" s="11" t="n">
+        <v>43404.60259401621</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.0622563888888887</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CHDKN070124</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8310.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>8310.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>99.72</v>
+      </c>
+      <c r="F15" t="n">
+        <v>99.72</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H15" s="11" t="n">
+        <v>43405.13765107639</v>
+      </c>
+      <c r="I15" s="11" t="n">
+        <v>43405.32340902778</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.458190833333333</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HBDKN370111</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5460.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5460.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>30.03</v>
+      </c>
+      <c r="F16" t="n">
+        <v>30.03</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H16" s="11" t="n">
+        <v>43403.07361111111</v>
+      </c>
+      <c r="I16" s="11" t="n">
+        <v>43403.483409953704</v>
+      </c>
+      <c r="J16" t="n">
+        <v>9.835172222222223</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HBDKN370124</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="F17" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H17" s="11" t="n">
+        <v>43402.709027777775</v>
+      </c>
+      <c r="I17" s="11" t="n">
+        <v>43402.844185462964</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.2437844444444446</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>HBDKN370406</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7224.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7230.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>21.672</v>
+      </c>
+      <c r="F18" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H18" s="11" t="n">
+        <v>43404.15144515046</v>
+      </c>
+      <c r="I18" s="11" t="n">
+        <v>43404.21501165509</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.5255961111111112</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>HBDKN390115</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6720.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6720.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H19" s="11" t="n">
+        <v>43404.48541666667</v>
+      </c>
+      <c r="I19" s="11" t="n">
+        <v>43404.989799953706</v>
+      </c>
+      <c r="J19" t="n">
+        <v>12.10519888888889</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HBDKN390406</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>15200.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>15200.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="F20" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H20" s="11" t="n">
+        <v>43406.62277011574</v>
+      </c>
+      <c r="I20" s="11" t="n">
+        <v>43406.935231041665</v>
+      </c>
+      <c r="J20" t="n">
+        <v>7.499062222222222</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>HBDKN400115</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19300.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>19300.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>144.75</v>
+      </c>
+      <c r="F21" t="n">
+        <v>144.75</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H21" s="11" t="n">
+        <v>43401.58333332176</v>
+      </c>
+      <c r="I21" s="11" t="n">
+        <v>43403.05276748843</v>
+      </c>
+      <c r="J21" t="n">
+        <v>35.26642</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>HBDKN400140</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4256.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4260.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>85.12</v>
+      </c>
+      <c r="F22" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H22" s="11" t="n">
+        <v>43402.4402118287</v>
+      </c>
+      <c r="I22" s="11" t="n">
+        <v>43402.44327430556</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.07349944444444445</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>HBDKN400406</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>13440.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>13440.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>40.32</v>
+      </c>
+      <c r="F23" t="n">
+        <v>40.32</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H23" s="11" t="n">
+        <v>43402.460537349536</v>
+      </c>
+      <c r="I23" s="11" t="n">
+        <v>43403.28803063658</v>
+      </c>
+      <c r="J23" t="n">
+        <v>19.859838888888888</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>HBDKN410140</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3008.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3010.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>60.16</v>
+      </c>
+      <c r="F24" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H24" s="11" t="n">
+        <v>43406.37457730324</v>
+      </c>
+      <c r="I24" s="11" t="n">
+        <v>43406.46635289352</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.2026141666666668</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>HBDKN410406</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4200.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4200.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F25" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H25" s="11" t="n">
+        <v>43406.95624998843</v>
+      </c>
+      <c r="I25" s="11" t="n">
+        <v>43407.24332457176</v>
+      </c>
+      <c r="J25" t="n">
+        <v>6.88979</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>HBDKN430111</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>12558.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>12560.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>25.116</v>
+      </c>
+      <c r="F26" t="n">
+        <v>25.12</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H26" s="11" t="n">
+        <v>43403.85457059028</v>
+      </c>
+      <c r="I26" s="11" t="n">
+        <v>43403.86848982639</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.33406166666666665</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>HBDKN430406</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>13790.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>13790.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>41.37</v>
+      </c>
+      <c r="F27" t="n">
+        <v>41.37</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H27" s="11" t="n">
+        <v>43405.005033298614</v>
+      </c>
+      <c r="I27" s="11" t="n">
+        <v>43405.241172546295</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5.667341944444445</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>HBDKN460116</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>15510.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>15510.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>120.2025</v>
+      </c>
+      <c r="F28" t="n">
+        <v>120.2025</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H28" s="11" t="n">
+        <v>43402.54012188657</v>
+      </c>
+      <c r="I28" s="11" t="n">
+        <v>43402.69815804398</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.792867777777778</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PSDKN060130</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>7970.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>7970.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>119.55</v>
+      </c>
+      <c r="F29" t="n">
+        <v>119.55</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H29" s="11" t="n">
+        <v>43405.18562578704</v>
+      </c>
+      <c r="I29" s="11" t="n">
+        <v>43405.326422962964</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.379132222222222</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PSDKN100406</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>6780.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>6780.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>20.34</v>
+      </c>
+      <c r="F30" t="n">
+        <v>20.34</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H30" s="11" t="n">
+        <v>43407.437499988424</v>
+      </c>
+      <c r="I30" s="11" t="n">
+        <v>43407.70164021991</v>
+      </c>
+      <c r="J30" t="n">
+        <v>6.339365555555555</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>WLCKN010307</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>10010.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>6880.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>35.035</v>
+      </c>
+      <c r="F31" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H31" s="11" t="n">
+        <v>43407.72291665509</v>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="J12" t="n">
-        <v>1.6857552777777778</v>
+      <c r="J31" t="n">
+        <v>6.650000277777778</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>WLDKN170150</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>14000.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>14000.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H32" s="11" t="n">
+        <v>43405.54375</v>
+      </c>
+      <c r="I32" s="11" t="n">
+        <v>43407.15358216435</v>
+      </c>
+      <c r="J32" t="n">
+        <v>38.63597194444444</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>WLDKN180150</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H33" s="11" t="n">
+        <v>43403.861805555556</v>
+      </c>
+      <c r="I33" s="11" t="n">
+        <v>43404.447238368055</v>
+      </c>
+      <c r="J33" t="n">
+        <v>14.0503875</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>WLDKN300120</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4015.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4020.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>40.15</v>
+      </c>
+      <c r="F34" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H34" s="11" t="n">
+        <v>43401.32968200232</v>
+      </c>
+      <c r="I34" s="11" t="n">
+        <v>43401.33610807871</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.15422583333333334</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>WLDKN300150</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>11970.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>11970.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>299.25</v>
+      </c>
+      <c r="F35" t="n">
+        <v>299.25</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H35" s="11" t="n">
+        <v>43401.35027425926</v>
+      </c>
+      <c r="I35" s="11" t="n">
+        <v>43401.91022989583</v>
+      </c>
+      <c r="J35" t="n">
+        <v>13.438935277777778</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>WMDK350140</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="F36" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H36" s="11" t="n">
+        <v>43405.15833333333</v>
+      </c>
+      <c r="I36" s="11" t="n">
+        <v>43405.365743125</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4.977835</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>WMDKN470140</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="F37" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H37" s="11" t="n">
+        <v>43403.611805555556</v>
+      </c>
+      <c r="I37" s="11" t="n">
+        <v>43403.85134537037</v>
+      </c>
+      <c r="J37" t="n">
+        <v>5.748955555555556</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ALDKN400406</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H38" s="11" t="n">
+        <v>43401.61319443287</v>
+      </c>
+      <c r="I38" s="11" t="n">
+        <v>43401.62512505787</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.286335</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>HBDKN400115</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>720.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>720.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F39" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H39" s="11" t="n">
+        <v>43403.30902777778</v>
+      </c>
+      <c r="I39" s="11" t="n">
+        <v>43403.350370659726</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.9922291666666667</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>PSDKN060130</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2746.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2750.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>41.19</v>
+      </c>
+      <c r="F40" t="n">
+        <v>41.25</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H40" s="11" t="n">
+        <v>43403.90069444444</v>
+      </c>
+      <c r="I40" s="11" t="n">
+        <v>43404.13055231481</v>
+      </c>
+      <c r="J40" t="n">
+        <v>5.516588888888889</v>
       </c>
     </row>
   </sheetData>
@@ -2734,11 +6128,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WLDKN170404</t>
+          <t>ALDKN400406</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1800.0</v>
+        <v>5040.0</v>
       </c>
     </row>
     <row r="3">
@@ -2747,11 +6141,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PSDKN050406</t>
+          <t>HBDKN400406</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5120.0</v>
+        <v>13440.0</v>
       </c>
     </row>
     <row r="4">
@@ -2760,89 +6154,466 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PSDKN040406</t>
+          <t>ALDKN370404</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3360.0</v>
+        <v>2600.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PSDKN050115</t>
+          <t>ALDKN430404</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8480.0</v>
+        <v>5000.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WLDKN290124</t>
+          <t>HBDKN370406</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>220.0</v>
+        <v>7230.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ALDKN540115</t>
+          <t>HBDKN430406</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4020.0</v>
+        <v>13790.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ALDKN540140</t>
+          <t>ALDKN390406</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4940.0</v>
+        <v>3360.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PSDKN050115</t>
+          <t>HBDKN390406</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>930.0</v>
+        <v>15200.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>HBDKN410406</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4200.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ALDKN410406</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1610.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PSDKN100406</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>6780.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>WLCKN010307</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>6880.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HBDKN400140</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>4260.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HBDKN400115</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>720.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PSDKN060130</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>7970.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ALDKN410115</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1400.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>HBDKN410140</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>3010.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>WLDKN300120</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>4020.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ALDKN400115</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2730.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>HBDKN400115</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>19300.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>HBDKN370111</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>5460.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>HBDKN430111</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>12560.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>PSDKN060130</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2750.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>HBDKN390115</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>6720.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>WMDK350140</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1990.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CHDKN030114</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1080.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CHDKN030128</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>7140.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
         <v>4.0</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>WLDKN300150</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>11970.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ALDKN460116</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1320.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>HBDKN460116</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15510.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>HBDKN370124</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1680.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ALDKN370124</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2520.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ALDKN430111</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>6390.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>WMDKN470140</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1980.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>WLDKN180150</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CHDKN070112</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1700.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CHDKN070124</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>8310.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>WLDKN170150</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>7200.0</v>
+      <c r="C39" t="n">
+        <v>14000.0</v>
       </c>
     </row>
   </sheetData>
@@ -2892,46 +6663,904 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PPDKN540</t>
+          <t>PPDKN430</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23.65000000000221</v>
+        <v>22.449999999964895</v>
       </c>
       <c r="D2" t="n">
-        <v>1.3499999999978172</v>
+        <v>4.500000000043656</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PPDKN370</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>49.53999999998896</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.2500000000130966</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PPDSN46G</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.2345230000013543</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PPDKN430</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35.1449999999932</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5227339515215135</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PSDKN060</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>40.30890197800866</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PPDKN46O</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>21.25187812186589</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.1149589781387474</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PPDKN390</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>21.849999999947606</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.600000000069849</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PPDKN46N</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.27930210000195077</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PPDKN46B</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>21.25187812186589</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4.1149589781387474</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PSDKN060</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>9.21301941684591</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.1000000000349246</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PPDSN46G</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>22.816433566439475</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.183566433559463</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PPDKN370</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9894083596984274</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PPDKN470</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>39.62294499998777</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>WLDKN180</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>125.01247919998485</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PPDKN390</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>74.6499999999734</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7500000000174624</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PPDSN46R</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.2345230000013543</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>PPDKN430</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>24.099999999986895</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.250000000030559</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>PSDKN060</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>87.85102360508075</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CHDKN070</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>24.699999999991316</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.30000000000873117</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PPDKN410</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>22.149999999956034</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.150000000052387</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>PPDSN46R</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>22.816433566439475</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.1835664335616456</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>PPDKN430</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>9.461156048334876</v>
+      </c>
+      <c r="D23" t="n">
+        <v>6.000000000122236</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>WLDKN170</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>350.173739599992</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>PPDKN400</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>165.27641083519032</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>PPDKN370</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>32.81999999999389</v>
+      </c>
+      <c r="D26" t="n">
+        <v>8.697536640307225</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>PPDKN410</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2.3025081754313423</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4.5000000000873115</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>PPDKN400</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>149.24125429922742</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.0423073655780173</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>PSDKN060</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.5000000000174623</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CHDKN030</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>107.64497249999415</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>WLDKN30B</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>170.22373959999837</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>PPDKN46N</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>PPDKN370</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>24.999999999999996</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>PPDKN430</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>20.499999999912692</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4.650000000087312</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>PPDKN390</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>9.620972499898807</v>
+      </c>
+      <c r="D35" t="n">
+        <v>5.400000000087312</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>WLCKN010</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>24.099999999965004</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.9000000000349246</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
         <v>12.0</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>PPDKN540</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>105.43123960000085</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>WLDKN30R</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>170.22373959999837</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>PPDKN46N</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>17.965909090905576</v>
+      </c>
+      <c r="D38" t="n">
+        <v>7.334090909096995</v>
+      </c>
+      <c r="E38" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F38" t="n">
         <v>3.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CHDKN070</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>85.36297249999402</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>PPDKN350</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>39.998739599992746</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>PPDKN410</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>63.75646432446662</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>PSDKN100</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>20.350972499993826</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
